--- a/doc/统计表.xlsx
+++ b/doc/统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>环境类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,26 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达标率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达标与稳定概况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温度离散系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,26 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五种参数组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环境名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>温度、湿度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博物馆名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>馆藏文物数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>环境指标综合统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境指标统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日波动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,11 +118,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>博物馆基础数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>极差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度未达标数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度数据总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度未达标数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照数据总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照未达标数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外数据总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外未达标数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC数据总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC未达标数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度标准上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度标准下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度标准上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度标准下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照标准上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照标准下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外标准上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外标准下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC标准上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC标准下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博物馆ID</t>
+  </si>
+  <si>
+    <t>博物馆ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展柜数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质分类（湿度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质分类（光照）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博物馆基础数据
+data_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博物馆综合统计
+data_complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博物馆参数综合统计
+data_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境类型参数综合统计
+data_envtype_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境表
+data_env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境综合统计
+data_env_complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境参数综合统计
+data_env_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境参数达标统计
+data_env_compliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度数据总数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +311,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,13 +341,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,6 +378,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,63 +679,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:O34"/>
+  <dimension ref="A3:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
     <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="20" max="20" width="12.875" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
-        <v>35</v>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -607,37 +754,33 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -646,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
@@ -667,26 +810,23 @@
         <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -697,13 +837,12 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
@@ -715,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
@@ -736,29 +875,26 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -769,70 +905,74 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -840,88 +980,166 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="4" t="s">
-        <v>9</v>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
+      <c r="C29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/统计表.xlsx
+++ b/doc/统计表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="628" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="backup" sheetId="1" r:id="rId1"/>
+    <sheet name="20161110" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
   <si>
     <t>环境类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>环境类型参数综合统计
+data_envtype_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境表
+data_env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境综合统计
+data_env_complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境参数综合统计
+data_env_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境参数达标统计
+data_env_compliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度数据总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>博物馆综合统计
 data_complex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,32 +277,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>环境类型参数综合统计
-data_envtype_param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境表
-data_env</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境综合统计
-data_env_complex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境参数综合统计
-data_env_param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境参数达标统计
-data_env_compliance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度数据总数</t>
+    <t>参数（展厅不分材质）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度、光照要分材质（加混合）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据异常值列表
+data_abnormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达标率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境类型参数综合统计ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">按环境 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日波动（剔除异常值）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +339,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -318,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -354,13 +415,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,17 +447,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -711,7 +803,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -734,7 +826,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="4"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -745,8 +837,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="5" t="s">
-        <v>55</v>
+      <c r="A8" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -754,33 +846,39 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="4"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5" t="s">
-        <v>56</v>
+      <c r="A13" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -820,7 +918,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="4"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>46</v>
@@ -841,8 +939,8 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="5" t="s">
-        <v>57</v>
+      <c r="A18" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
@@ -885,7 +983,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -909,16 +1007,16 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="5" t="s">
-        <v>58</v>
+      <c r="A23" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -927,31 +1025,31 @@
       <c r="F23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -959,11 +1057,11 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1"/>
@@ -985,13 +1083,13 @@
       <c r="P24" s="1"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="5" t="s">
-        <v>59</v>
+      <c r="A28" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1002,17 +1100,17 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="5" t="s">
-        <v>60</v>
+      <c r="A33" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>6</v>
@@ -1020,7 +1118,7 @@
       <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1052,12 +1150,12 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="4"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="1"/>
@@ -1073,40 +1171,40 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="5" t="s">
-        <v>61</v>
+      <c r="A38" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>62</v>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -1114,32 +1212,32 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="4"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,12 +1247,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="18" width="12.25" customWidth="1"/>
+    <col min="19" max="19" width="11.375" customWidth="1"/>
+    <col min="20" max="20" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/doc/统计表.xlsx
+++ b/doc/统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>环境类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1247,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:R19"/>
+  <dimension ref="A3:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1260,7 +1260,7 @@
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
@@ -1275,7 +1275,7 @@
     <col min="20" max="20" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
@@ -1309,7 +1309,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
@@ -1328,44 +1328,38 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -1376,7 +1370,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
@@ -1386,10 +1380,8 @@
       <c r="N9" s="1"/>
       <c r="O9" s="4"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="13" spans="1:18">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
@@ -1436,7 +1428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">

--- a/doc/统计表.xlsx
+++ b/doc/统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>环境类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,15 +310,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">按环境 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日波动（剔除异常值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按环境，|Z分数|&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按环境，仅温度&gt;4和湿度&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>σ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max-min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达标次数/总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否剔除异常值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日波动超标列表
+data_wave_abnormal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +500,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:P19"/>
+  <dimension ref="A3:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1259,7 +1290,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
@@ -1267,8 +1298,8 @@
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="12.75" customWidth="1"/>
     <col min="17" max="18" width="12.25" customWidth="1"/>
     <col min="19" max="19" width="11.375" customWidth="1"/>
@@ -1419,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>8</v>
@@ -1444,18 +1475,22 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="15"/>
       <c r="N14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
@@ -1493,8 +1528,48 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>

--- a/doc/统计表.xlsx
+++ b/doc/统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>环境类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按环境，仅温度&gt;4和湿度&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>σ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +340,22 @@
   <si>
     <t>日波动超标列表
 data_wave_abnormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期/周/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周和月不统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按环境，仅温度&gt;4和湿度&gt;5，周和月不统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周和月不统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +502,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,11 +520,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,12 +1302,13 @@
   <dimension ref="A3:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
@@ -1296,8 +1318,8 @@
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="24.25" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="12.75" customWidth="1"/>
@@ -1344,8 +1366,8 @@
       <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
+      <c r="B8" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1416,8 +1438,8 @@
       <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
+      <c r="B13" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1476,24 +1498,24 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="15"/>
+      <c r="L14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="11"/>
       <c r="N14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1502,10 +1524,10 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1517,20 +1539,22 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
-        <v>79</v>
+      <c r="A23" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -1538,12 +1562,12 @@
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>15</v>
@@ -1553,13 +1577,15 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>

--- a/doc/统计表.xlsx
+++ b/doc/统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
   <si>
     <t>环境类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>周和月不统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照离散系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外离散系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC离散系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +508,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -526,7 +541,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +873,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -878,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -889,7 +907,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -915,7 +933,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>46</v>
@@ -929,7 +947,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -970,7 +988,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>46</v>
@@ -991,7 +1009,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1035,7 +1053,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -1059,7 +1077,7 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1109,7 +1127,7 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1135,7 +1153,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1152,7 +1170,7 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5" t="s">
         <v>48</v>
@@ -1161,7 +1179,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1202,7 +1220,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>48</v>
@@ -1223,7 +1241,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1264,7 +1282,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>48</v>
@@ -1299,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:P24"/>
+  <dimension ref="A3:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1328,8 +1346,8 @@
     <col min="20" max="20" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1351,8 +1369,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:19">
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1362,11 +1380,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1381,39 +1399,48 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="S8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:19">
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>46</v>
@@ -1423,22 +1450,25 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="8" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1481,8 +1511,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:19">
+      <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>46</v>
@@ -1503,10 +1533,10 @@
       <c r="K14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="1" t="s">
         <v>73</v>
       </c>
@@ -1515,7 +1545,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1524,10 +1554,10 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1539,21 +1569,21 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1562,10 +1592,10 @@
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
@@ -1577,15 +1607,15 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>

--- a/doc/统计表.xlsx
+++ b/doc/统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
   <si>
     <t>环境类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,12 @@
   <si>
     <t>VOC离散系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅数量</t>
+  </si>
+  <si>
+    <t>库房数量</t>
   </si>
 </sst>
 </file>
@@ -511,6 +517,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,12 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,7 +879,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -896,7 +902,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -907,7 +913,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -933,7 +939,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>46</v>
@@ -947,7 +953,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -988,7 +994,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>46</v>
@@ -1009,7 +1015,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1053,7 +1059,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -1077,7 +1083,7 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1127,7 +1133,7 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1153,7 +1159,7 @@
       <c r="P24" s="1"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1170,7 +1176,7 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5" t="s">
         <v>48</v>
@@ -1179,7 +1185,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1220,7 +1226,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>48</v>
@@ -1241,7 +1247,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1282,7 +1288,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>48</v>
@@ -1320,7 +1326,7 @@
   <dimension ref="A3:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1347,7 +1353,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1368,9 +1374,15 @@
       <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1379,9 +1391,11 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1399,13 +1413,13 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="10" t="s">
         <v>85</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -1440,7 +1454,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>46</v>
@@ -1465,7 +1479,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1512,7 +1526,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>46</v>
@@ -1533,10 +1547,10 @@
       <c r="K14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="1" t="s">
         <v>73</v>
       </c>
@@ -1545,7 +1559,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1554,10 +1568,10 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1569,21 +1583,21 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1592,10 +1606,10 @@
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
@@ -1607,15 +1621,15 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
